--- a/data/environmental/daily_measurements/daily_light.xlsx
+++ b/data/environmental/daily_measurements/daily_light.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/data/environmental/daily_measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E90082-C600-0544-8CE4-865BB4FE2B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6225E2-77B2-BC4E-9BBA-6AD5BC6C58FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{873D679D-533A-6F4D-B4A2-29DC51207C23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
   <si>
     <t>tank</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>Q4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sunny with passing clouds today </t>
   </si>
 </sst>
 </file>
@@ -425,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2812896-27E0-934E-A3CC-40B13C09CA4B}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -456,28 +459,516 @@
       <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>20220929</v>
+      </c>
+      <c r="B2">
+        <v>1221</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="E2">
+        <v>407</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>20220929</v>
+      </c>
+      <c r="B3">
+        <v>1221</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
+      <c r="E3">
+        <v>401</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>20220929</v>
+      </c>
+      <c r="B4">
+        <v>1221</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
+      <c r="E4">
+        <v>386</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>20220929</v>
+      </c>
+      <c r="B5">
+        <v>1221</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
+      <c r="E5">
+        <v>362</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>20220929</v>
+      </c>
+      <c r="B6">
+        <v>1221</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
       <c r="D6" t="s">
         <v>10</v>
+      </c>
+      <c r="E6">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>20220929</v>
+      </c>
+      <c r="B7">
+        <v>1223</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>20220929</v>
+      </c>
+      <c r="B8">
+        <v>1223</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>20220929</v>
+      </c>
+      <c r="B9">
+        <v>1223</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>20220929</v>
+      </c>
+      <c r="B10">
+        <v>1223</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>20220929</v>
+      </c>
+      <c r="B11">
+        <v>1223</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>20220929</v>
+      </c>
+      <c r="B12">
+        <v>1225</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>20220929</v>
+      </c>
+      <c r="B13">
+        <v>1225</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>20220929</v>
+      </c>
+      <c r="B14">
+        <v>1225</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>20220929</v>
+      </c>
+      <c r="B15">
+        <v>1225</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>20220929</v>
+      </c>
+      <c r="B16">
+        <v>1225</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>20220929</v>
+      </c>
+      <c r="B17">
+        <v>1227</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>20220929</v>
+      </c>
+      <c r="B18">
+        <v>1227</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>20220929</v>
+      </c>
+      <c r="B19">
+        <v>1227</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>20220929</v>
+      </c>
+      <c r="B20">
+        <v>1227</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20220929</v>
+      </c>
+      <c r="B21">
+        <v>1227</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20220929</v>
+      </c>
+      <c r="B22">
+        <v>1228</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20220929</v>
+      </c>
+      <c r="B23">
+        <v>1228</v>
+      </c>
+      <c r="C23">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>20220929</v>
+      </c>
+      <c r="B24">
+        <v>1228</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>20220929</v>
+      </c>
+      <c r="B25">
+        <v>1228</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>20220929</v>
+      </c>
+      <c r="B26">
+        <v>1228</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>20220929</v>
+      </c>
+      <c r="B27">
+        <v>1230</v>
+      </c>
+      <c r="C27">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>20220929</v>
+      </c>
+      <c r="B28">
+        <v>1230</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>20220929</v>
+      </c>
+      <c r="B29">
+        <v>1230</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>20220929</v>
+      </c>
+      <c r="B30">
+        <v>1230</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>20220929</v>
+      </c>
+      <c r="B31">
+        <v>1230</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>10</v>
+      </c>
+      <c r="E31">
+        <v>401</v>
       </c>
     </row>
   </sheetData>

--- a/data/environmental/daily_measurements/daily_light.xlsx
+++ b/data/environmental/daily_measurements/daily_light.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arianasnowhuffmyer/MyProjects/E5/apulchra_metabolism/data/environmental/daily_measurements/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B6225E2-77B2-BC4E-9BBA-6AD5BC6C58FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F3969D-B2C0-EE4C-B448-EFE47911DE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16500" xr2:uid="{873D679D-533A-6F4D-B4A2-29DC51207C23}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="12">
   <si>
     <t>tank</t>
   </si>
@@ -428,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2812896-27E0-934E-A3CC-40B13C09CA4B}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -971,6 +971,516 @@
         <v>401</v>
       </c>
     </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>20220930</v>
+      </c>
+      <c r="B32">
+        <v>945</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>20220930</v>
+      </c>
+      <c r="B33">
+        <v>945</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>20220930</v>
+      </c>
+      <c r="B34">
+        <v>945</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>20220930</v>
+      </c>
+      <c r="B35">
+        <v>945</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>20220930</v>
+      </c>
+      <c r="B36">
+        <v>945</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>20220930</v>
+      </c>
+      <c r="B37">
+        <v>946</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>20220930</v>
+      </c>
+      <c r="B38">
+        <v>946</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>20220930</v>
+      </c>
+      <c r="B39">
+        <v>946</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>20220930</v>
+      </c>
+      <c r="B40">
+        <v>946</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E40">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>20220930</v>
+      </c>
+      <c r="B41">
+        <v>946</v>
+      </c>
+      <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41" t="s">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>20220930</v>
+      </c>
+      <c r="B42">
+        <v>948</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>20220930</v>
+      </c>
+      <c r="B43">
+        <v>948</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>20220930</v>
+      </c>
+      <c r="B44">
+        <v>948</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>20220930</v>
+      </c>
+      <c r="B45">
+        <v>948</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>20220930</v>
+      </c>
+      <c r="B46">
+        <v>948</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>20220930</v>
+      </c>
+      <c r="B47">
+        <v>949</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>20220930</v>
+      </c>
+      <c r="B48">
+        <v>949</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20220930</v>
+      </c>
+      <c r="B49">
+        <v>949</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20220930</v>
+      </c>
+      <c r="B50">
+        <v>949</v>
+      </c>
+      <c r="C50">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>20220930</v>
+      </c>
+      <c r="B51">
+        <v>949</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>20220930</v>
+      </c>
+      <c r="B52">
+        <v>952</v>
+      </c>
+      <c r="C52">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>20220930</v>
+      </c>
+      <c r="B53">
+        <v>952</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>20220930</v>
+      </c>
+      <c r="B54">
+        <v>952</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>20220930</v>
+      </c>
+      <c r="B55">
+        <v>952</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
+        <v>9</v>
+      </c>
+      <c r="E55">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>20220930</v>
+      </c>
+      <c r="B56">
+        <v>952</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>10</v>
+      </c>
+      <c r="E56">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>20220930</v>
+      </c>
+      <c r="B57">
+        <v>953</v>
+      </c>
+      <c r="C57">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>20220930</v>
+      </c>
+      <c r="B58">
+        <v>953</v>
+      </c>
+      <c r="C58">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>20220930</v>
+      </c>
+      <c r="B59">
+        <v>953</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>20220930</v>
+      </c>
+      <c r="B60">
+        <v>953</v>
+      </c>
+      <c r="C60">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>20220930</v>
+      </c>
+      <c r="B61">
+        <v>953</v>
+      </c>
+      <c r="C61">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61">
+        <v>355</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
